--- a/heima-bankuai-list-2017-03-08.xlsx
+++ b/heima-bankuai-list-2017-03-08.xlsx
@@ -55,7 +55,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=340411&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>4/86</t>
+    <t>4/92</t>
   </si>
   <si>
     <t>郑州-助教</t>
@@ -70,7 +70,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=339669&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>8/95</t>
+    <t>8/100</t>
   </si>
   <si>
     <t>2017-2-28</t>
@@ -82,7 +82,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=339820&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>10/104</t>
+    <t>10/109</t>
   </si>
   <si>
     <t>7 天前</t>
@@ -94,7 +94,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=339908&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/94</t>
+    <t>3/99</t>
   </si>
   <si>
     <t>2017-2-9</t>
@@ -106,7 +106,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=338216&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/195</t>
+    <t>3/200</t>
   </si>
   <si>
     <t>2017-2-23</t>
@@ -118,7 +118,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=339301&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>2/133</t>
+    <t>2/137</t>
   </si>
   <si>
     <t>2017-1-10</t>
@@ -130,7 +130,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=337149&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/242</t>
+    <t>3/246</t>
   </si>
   <si>
     <t>2016-12-31</t>
@@ -142,7 +142,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=336876&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/331</t>
+    <t>3/335</t>
   </si>
   <si>
     <t>2016-12-16</t>
@@ -154,7 +154,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=336227&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>1/209</t>
+    <t>1/213</t>
   </si>
   <si>
     <t>2016-11-8</t>
@@ -166,7 +166,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=333172&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>4/401</t>
+    <t>4/405</t>
   </si>
   <si>
     <t>2016-12-2</t>
@@ -178,7 +178,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=335230&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>10/296</t>
+    <t>10/300</t>
   </si>
   <si>
     <t>杨亚男</t>
@@ -196,7 +196,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=316380&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>9/672</t>
+    <t>9/676</t>
   </si>
   <si>
     <t>2016-10-26</t>
@@ -208,7 +208,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=332120&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>0/305</t>
+    <t>0/310</t>
   </si>
   <si>
     <t>2016-9-20</t>
@@ -220,7 +220,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=327481&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>2/441</t>
+    <t>2/446</t>
   </si>
   <si>
     <t>米娅</t>
@@ -235,7 +235,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=287113&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>7/725</t>
+    <t>7/730</t>
   </si>
   <si>
     <t>2016-9-11</t>
@@ -247,7 +247,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=325193&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>2/276</t>
+    <t>2/281</t>
   </si>
   <si>
     <t>2016-9-12</t>
@@ -259,7 +259,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=325403&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/315</t>
+    <t>3/320</t>
   </si>
   <si>
     <t>2016-9-7</t>
@@ -271,7 +271,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=324122&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>7/288</t>
+    <t>7/293</t>
   </si>
   <si>
     <t>2016-7-11</t>
@@ -283,7 +283,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=315343&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>7/417</t>
+    <t>7/422</t>
   </si>
   <si>
     <t>2016-8-18</t>
@@ -295,7 +295,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=321226&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>2/298</t>
+    <t>2/304</t>
   </si>
   <si>
     <t>2016-6-29</t>
@@ -307,7 +307,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=312872&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>11/416</t>
+    <t>11/421</t>
   </si>
   <si>
     <t>2016-6-14</t>
@@ -319,7 +319,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=310426&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>2/624</t>
+    <t>2/628</t>
   </si>
   <si>
     <t>2016-5-15</t>
@@ -331,7 +331,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=301267&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/559</t>
+    <t>3/563</t>
   </si>
   <si>
     <t>2016-4-27</t>
@@ -343,7 +343,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=295320&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>0/327</t>
+    <t>0/331</t>
   </si>
 </sst>
 </file>

--- a/heima-bankuai-list-2017-03-08.xlsx
+++ b/heima-bankuai-list-2017-03-08.xlsx
@@ -55,7 +55,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=340411&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>4/112</t>
+    <t>4/117</t>
   </si>
   <si>
     <t>7 天前</t>
@@ -67,7 +67,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=339908&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/113</t>
+    <t>3/117</t>
   </si>
   <si>
     <t>班级活动</t>
@@ -82,7 +82,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=340569&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
   </si>
   <si>
-    <t>17/80</t>
+    <t>17/82</t>
   </si>
   <si>
     <t>郑州-助教</t>
@@ -97,7 +97,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=340490&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
   </si>
   <si>
-    <t>23/139</t>
+    <t>23/141</t>
   </si>
 </sst>
 </file>
